--- a/tests/data/desired/streamjoinreport.xlsx
+++ b/tests/data/desired/streamjoinreport.xlsx
@@ -9,7 +9,7 @@
     <sheet name="full" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$B$2:$H$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$B$2:$H$2</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -102,13 +102,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="7.01171875" customWidth="true"/>
-    <col min="3" max="3" width="16.62890625" customWidth="true"/>
-    <col min="4" max="4" width="16.1171875" customWidth="true"/>
-    <col min="5" max="5" width="8.9140625" customWidth="true"/>
-    <col min="6" max="6" width="16.62890625" customWidth="true"/>
-    <col min="7" max="7" width="16.1171875" customWidth="true"/>
-    <col min="8" max="8" width="8.9140625" customWidth="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="17.59375" customWidth="true"/>
+    <col min="4" max="4" width="17.59375" customWidth="true"/>
+    <col min="5" max="5" width="17.59375" customWidth="true"/>
+    <col min="6" max="6" width="17.59375" customWidth="true"/>
+    <col min="7" max="7" width="17.59375" customWidth="true"/>
+    <col min="8" max="8" width="17.59375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -227,11 +227,41 @@
       <c r="E5" s="2" t="n">
         <v>13.0</v>
       </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="n">
         <v>4.0</v>
       </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
           <t>2Bruce4</t>
@@ -263,10 +293,40 @@
       <c r="E7" s="2" t="n">
         <v>15.0</v>
       </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
         <v>6.0</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>

--- a/tests/data/desired/streamjoinreport.xlsx
+++ b/tests/data/desired/streamjoinreport.xlsx
@@ -103,12 +103,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="8.0" customWidth="true"/>
-    <col min="3" max="3" width="17.59375" customWidth="true"/>
-    <col min="4" max="4" width="17.59375" customWidth="true"/>
-    <col min="5" max="5" width="17.59375" customWidth="true"/>
-    <col min="6" max="6" width="17.59375" customWidth="true"/>
-    <col min="7" max="7" width="17.59375" customWidth="true"/>
-    <col min="8" max="8" width="17.59375" customWidth="true"/>
+    <col min="3" max="3" width="26.10546875" customWidth="true"/>
+    <col min="4" max="4" width="25.59765625" customWidth="true"/>
+    <col min="5" max="5" width="18.390625" customWidth="true"/>
+    <col min="6" max="6" width="26.10546875" customWidth="true"/>
+    <col min="7" max="7" width="25.59765625" customWidth="true"/>
+    <col min="8" max="8" width="18.390625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -119,32 +119,32 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>FIRST_NAME</t>
+          <t>FIRST_NAME (Source1)</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>LAST_NAME</t>
+          <t>LAST_NAME (Source1)</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>AGE</t>
+          <t>AGE (Source1)</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>FIRST_NAME</t>
+          <t>FIRST_NAME (Source2)</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>LAST_NAME</t>
+          <t>LAST_NAME (Source2)</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>AGE</t>
+          <t>AGE (Source2)</t>
         </is>
       </c>
     </row>

--- a/tests/data/desired/streamjoinreport.xlsx
+++ b/tests/data/desired/streamjoinreport.xlsx
@@ -9,7 +9,7 @@
     <sheet name="full" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$B$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$B$2:$I$2</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -102,111 +102,123 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="8.0" customWidth="true"/>
-    <col min="3" max="3" width="26.10546875" customWidth="true"/>
-    <col min="4" max="4" width="25.59765625" customWidth="true"/>
-    <col min="5" max="5" width="18.390625" customWidth="true"/>
-    <col min="6" max="6" width="26.10546875" customWidth="true"/>
-    <col min="7" max="7" width="25.59765625" customWidth="true"/>
-    <col min="8" max="8" width="18.390625" customWidth="true"/>
+    <col min="2" max="2" width="14.03515625" customWidth="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true"/>
+    <col min="4" max="4" width="26.10546875" customWidth="true"/>
+    <col min="5" max="5" width="25.59765625" customWidth="true"/>
+    <col min="6" max="6" width="18.390625" customWidth="true"/>
+    <col min="7" max="7" width="26.10546875" customWidth="true"/>
+    <col min="8" max="8" width="25.59765625" customWidth="true"/>
+    <col min="9" max="9" width="18.390625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t># of Diffs</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>FIRST_NAME (Source1)</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>LAST_NAME (Source1)</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>AGE (Source1)</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>FIRST_NAME (Source2)</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>LAST_NAME (Source2)</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>AGE (Source2)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>1Martin1</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>1Velky1</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="F3" s="2" t="n">
         <v>11.0</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>2Bruce1</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>2Abone1</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="I3" s="2" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>1Martin2</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>1Velky2</t>
         </is>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="F4" s="2" t="n">
         <v>12.0</v>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>2Bruce2</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>2Abone2</t>
         </is>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="I4" s="2" t="n">
         <v>22.0</v>
       </c>
     </row>
@@ -214,30 +226,33 @@
       <c r="B5" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>1Martin3</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>1Velky3</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="F5" s="2" t="n">
         <v>13.0</v>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>&lt;&lt;missing&gt;&gt;</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>&lt;&lt;missing&gt;&gt;</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>&lt;&lt;missing&gt;&gt;</t>
         </is>
@@ -245,13 +260,11 @@
     </row>
     <row r="6">
       <c r="B6" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n">
         <v>4.0</v>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>&lt;&lt;missing&gt;&gt;</t>
-        </is>
-      </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
           <t>&lt;&lt;missing&gt;&gt;</t>
@@ -264,46 +277,54 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>2Bruce4</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>2Abone4</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="I6" s="2" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="n">
         <v>5.0</v>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>1Martin5</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>1Velky5</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="F7" s="2" t="n">
         <v>15.0</v>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>&lt;&lt;missing&gt;&gt;</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>&lt;&lt;missing&gt;&gt;</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>&lt;&lt;missing&gt;&gt;</t>
         </is>
@@ -311,13 +332,11 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8" t="n">
         <v>6.0</v>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>&lt;&lt;missing&gt;&gt;</t>
-        </is>
-      </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
           <t>&lt;&lt;missing&gt;&gt;</t>
@@ -330,82 +349,93 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>&lt;&lt;missing&gt;&gt;</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>2Bruce6</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>2Abone6</t>
         </is>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="I8" s="2" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
         <v>7.0</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Martin7</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Velky7</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>77.0</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Martin7</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Velky7</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>77.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="n">
+      <c r="B10" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="n">
         <v>8.0</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Bruce8</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Abone8</t>
         </is>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="F10" s="2" t="n">
         <v>15.0</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Bruce8</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Abone8</t>
         </is>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="I10" s="2" t="n">
         <v>88.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H10"/>
+  <autoFilter ref="B2:I10"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/tests/data/desired/streamjoinreport.xlsx
+++ b/tests/data/desired/streamjoinreport.xlsx
@@ -9,7 +9,7 @@
     <sheet name="full" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">full!$B$2:$I$10</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -226,7 +226,7 @@
       <c r="B5" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -262,7 +262,7 @@
       <c r="B6" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>4.0</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -298,7 +298,7 @@
       <c r="B7" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
         <v>5.0</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -334,7 +334,7 @@
       <c r="B8" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
         <v>6.0</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
